--- a/medicine/Bioéthique/The_Wish_List/The_Wish_List.xlsx
+++ b/medicine/Bioéthique/The_Wish_List/The_Wish_List.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Wish List est une organisation dont l'acronyme signifie Women In the Senate and House. C'est un comité d'action politique américain destiné à intégrer des femmes pro-choix républicaines à la Chambre des Représentants et au Sénat américain. La Wish List fut fondée en 1992. Il peut être considéré comme la contrepartie de deux autres organisations : Emily's List, dont le but est de faire élire des femmes démocrates pro-choix et de la Susan B. Anthony List, dont le but est de faire élire des femmes pro-life. La Wish List garde de fortes alliances avec d'autres groupes républicains libéraux ou modérés, comme le Republican Majority for Choice, ou les Republicans for Choice.
@@ -512,7 +524,9 @@
           <t>Membres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Directrice, Glenda L. Greenwald
 Présidente, Pat Giardina Carpenter
@@ -545,7 +559,9 @@
           <t>Sénat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Susan Collins, Maine
 Olympia Snowe, Maine
@@ -578,7 +594,9 @@
           <t>Gouverneurs</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Linda Lingle, Hawaii
 Jodi Rell, Connecticut</t>
